--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,33 +14,381 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>5 DARLA PLACE ROSEBERY NT 0832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$575k</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+  <x:si>
+    <x:t>15 GARIBALDI STREET TRARALGON VIC 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 WARWICK STREET CLEARVIEW SA 5085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address Not Found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 GEORGE FLEMMING ROAD WINGHAM NSW 2429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$510k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$590k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$670k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 HAROLD REINHARDT DRIVE REDBANK PLAINS QLD 4301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$305k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$360k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$415k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 O'REILLY CRESCENT SPRINGFIELD LAKES QLD 4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42 DOG TRAP LANE INVERELL NSW 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$530k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$620k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$710k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/105 SIMPSON AVENUE ROCKINGHAM WA 6168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$175k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$205k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$235k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 ROSEMOUNT ENTRANCE PEARSALL WA 6065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 VENTASSO STREET CLYDE NORTH VIC 3978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$525k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$610k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$695k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36/140 ENDEAVOUR BOULEVARD NORTH LAKES QLD 4509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$335k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$365k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003/33 MACKENZIE STREET MELBOURNE VIC 3000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 BOWRAL WAY TRARALGON VIC 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$740k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$860k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$980k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 LINACRE CRESCENT CARINDALE QLD 4152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.1m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.24m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.38m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101 SWAN PARADE WARNER QLD 4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$430k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$500k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$570k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72 MACQUARIE CIRCUIT FITZGIBBON QLD 4018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$490k</x:t>
   </x:si>
   <x:si>
     <x:t>$650k</x:t>
   </x:si>
   <x:si>
-    <x:t>$725k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Successful</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97 BRIGHTON DRIVE BELLA VISTA NSW 2153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74 STATION STREET BONNELLS BAY NSW 2264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Failed</x:t>
+    <x:t>18 CORSICAN STREET FRANKSTON NORTH VIC 3200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$480k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$560k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$640k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 TULLY LANE COOMERA QLD 4209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$330k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$385k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$440k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 ALTERNATIVE WAY NIMBIN NSW 2480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305/17 GRATTAN CLOSE FOREST LODGE NSW 2037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$675k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$785k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$895k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 SONOMA DRIVE HOLMVIEW QLD 4207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$515k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$600k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$685k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 CASTLE CLOSE TOORADIN VIC 3980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$445k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$505k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 SHELMORE DRIVE OLD BEACH TAS 7017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127 SEYMOUR STREET TRARALGON VIC 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/122 ROBSONS ROAD WEST WOLLONGONG NSW 2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$705k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$815k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$925k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 OTHO STREET INVERELL NSW 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$190k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$220k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$250k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35/35-A ALBURY STREET ASHFORD NSW 2361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 MCARTHUR PARADE BARINGA QLD 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$410k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$550k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62 DISCOVERY BOULEVARD MOE VIC 3825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10B WHITESIDE ROAD OFFICER VIC 3809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 THANE COURT LLOYD NSW 2650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 SHAILER ROAD SHAILER PARK QLD 4128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/7 MAYHILL PLACE CRAIGIE WA 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/7 MAYHILL PLACE CRAIGIE WA 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1B LLEWELLYN STREET CENTENARY HEIGHTS QLD 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 FLANDERS PLACE ALEXANDER HEIGHTS WA 6064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4B NASH STREET HILLARYS WA 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/89 BRITTEN-JONES DRIVE HOLT ACT 2615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$420k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$540k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 ONKAPARINGA CRESCENT KALEEN ACT 2617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$645k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$750k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$855k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/6 STODDART DRIVE BAYVIEW NT 0820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/101 MITCHELL STREET DARWIN NT 0800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 BLUE HAZE CRESCENT BANORA POINT NSW 2486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76 BOTANICAL CIRCUIT BANORA POINT NSW 2486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$780k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$890k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-29 THIRD AVENUE BLACKTOWN NSW 2148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 ROSELLA CLOSE BLAXLAND NSW 2774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$665k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$765k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$865k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90/18 EDGEWOOD CRESCENT CABARITA NSW 2137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.04m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.27m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.5m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 SECOND AVENUE CAMPSIE NSW 2194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/16-18 CARLTON PARADE CARLTON NSW 2218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$630k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$720k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 DE MEYRICK AVENUE CASULA NSW 2170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$840k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/481 HANEL STREET EAST ALBURY NSW 2640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$150k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$200k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 MCKINNON STREET EAST BALLINA NSW 2478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$900k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.04m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.18m</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -405,47 +753,846 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>15 GARIBALDI STREET TRARALGON VIC 3844</x:t>
   </x:si>
@@ -149,12 +149,6 @@
   </x:si>
   <x:si>
     <x:t>72 MACQUARIE CIRCUIT FITZGIBBON QLD 4018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$490k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$650k</x:t>
   </x:si>
   <x:si>
     <x:t>18 CORSICAN STREET FRANKSTON NORTH VIC 3200</x:t>
@@ -920,16 +914,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -988,30 +982,30 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>9</x:v>
@@ -1019,16 +1013,16 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>9</x:v>
@@ -1036,7 +1030,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>1</x:v>
@@ -1053,16 +1047,16 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>9</x:v>
@@ -1070,16 +1064,16 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>9</x:v>
@@ -1087,16 +1081,16 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>9</x:v>
@@ -1104,7 +1098,7 @@
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>1</x:v>
@@ -1121,7 +1115,7 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>1</x:v>
@@ -1138,16 +1132,16 @@
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>9</x:v>
@@ -1155,16 +1149,16 @@
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>9</x:v>
@@ -1172,7 +1166,7 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>4</x:v>
@@ -1189,16 +1183,16 @@
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>9</x:v>
@@ -1206,7 +1200,7 @@
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>1</x:v>
@@ -1223,7 +1217,7 @@
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>1</x:v>
@@ -1240,7 +1234,7 @@
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>1</x:v>
@@ -1257,7 +1251,7 @@
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>1</x:v>
@@ -1274,7 +1268,7 @@
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>1</x:v>
@@ -1291,7 +1285,7 @@
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>1</x:v>
@@ -1308,7 +1302,7 @@
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>1</x:v>
@@ -1325,7 +1319,7 @@
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>4</x:v>
@@ -1342,7 +1336,7 @@
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>1</x:v>
@@ -1359,16 +1353,16 @@
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>9</x:v>
@@ -1376,16 +1370,16 @@
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B38" s="0" t="s">
+      <x:c r="D38" s="0" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>9</x:v>
@@ -1393,24 +1387,24 @@
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>4</x:v>
@@ -1427,7 +1421,7 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>33</x:v>
@@ -1444,16 +1438,16 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>9</x:v>
@@ -1461,7 +1455,7 @@
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>4</x:v>
@@ -1478,16 +1472,16 @@
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
+      <x:c r="D44" s="0" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>9</x:v>
@@ -1495,16 +1489,16 @@
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="D45" s="0" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>9</x:v>
@@ -1512,7 +1506,7 @@
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>4</x:v>
@@ -1529,16 +1523,16 @@
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>9</x:v>
@@ -1546,16 +1540,16 @@
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>9</x:v>
@@ -1563,16 +1557,16 @@
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>9</x:v>
@@ -1580,16 +1574,16 @@
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B50" s="0" t="s">
+      <x:c r="D50" s="0" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>9</x:v>
